--- a/src/main/java/ExcelStorage/DSBacSi.xlsx
+++ b/src/main/java/ExcelStorage/DSBacSi.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="74">
   <si>
     <t>Danh Sách Bác Sĩ</t>
   </si>
@@ -47,148 +47,193 @@
     <t>Khoa</t>
   </si>
   <si>
-    <t>BS04219922</t>
-  </si>
-  <si>
-    <t>Bùi Văn Minh</t>
+    <t>BS0707966</t>
+  </si>
+  <si>
+    <t>Truong Công Trạng</t>
   </si>
   <si>
     <t>Nam</t>
   </si>
   <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>099000111231</t>
-  </si>
-  <si>
-    <t>Quảng Nam</t>
-  </si>
-  <si>
-    <t>0922144561</t>
-  </si>
-  <si>
-    <t>bs04219922@ptitcare.doctor.com</t>
-  </si>
-  <si>
-    <t>Tiến sĩ</t>
-  </si>
-  <si>
-    <t>Tim mạch</t>
-  </si>
-  <si>
-    <t>BS27239017</t>
-  </si>
-  <si>
-    <t>Hồ Nguyễn Hoài Phong</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>079230001233</t>
-  </si>
-  <si>
-    <t>Phú Nhuận</t>
-  </si>
-  <si>
-    <t>0932000192</t>
-  </si>
-  <si>
-    <t>bs27239017@ptitcare.doctor.com</t>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>079203004555</t>
+  </si>
+  <si>
+    <t>Da Nang</t>
+  </si>
+  <si>
+    <t>0988765876</t>
+  </si>
+  <si>
+    <t>bs0707966@ptitcare.doctor.com</t>
+  </si>
+  <si>
+    <t>Thú y</t>
+  </si>
+  <si>
+    <t>Cấp cứu</t>
+  </si>
+  <si>
+    <t>BS10564328</t>
+  </si>
+  <si>
+    <t>Phan Thanh Minh</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>123658963215</t>
+  </si>
+  <si>
+    <t>Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>0935056321</t>
+  </si>
+  <si>
+    <t>bs10564328@ptitcare.doctor.com</t>
   </si>
   <si>
     <t>Thạc Sĩ</t>
   </si>
   <si>
-    <t>Hô Hấp</t>
-  </si>
-  <si>
-    <t>BS43259307</t>
-  </si>
-  <si>
-    <t>Phạm Ngọc Ánh</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>079203111231</t>
-  </si>
-  <si>
-    <t>TPHCM</t>
-  </si>
-  <si>
-    <t>0988888213</t>
-  </si>
-  <si>
-    <t>bs43259307@ptitcare.doctor.com</t>
-  </si>
-  <si>
-    <t>Bác sĩ tập sự</t>
-  </si>
-  <si>
-    <t>BS50093503</t>
-  </si>
-  <si>
-    <t>Hồ Ngọc Quỳnh Như</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>079203004566</t>
-  </si>
-  <si>
-    <t>Phú Thọ Hòa, Phú Thạnh, Tân Phú</t>
-  </si>
-  <si>
-    <t>0932074488</t>
-  </si>
-  <si>
-    <t>bs50093503@ptitcare.doctor.com</t>
-  </si>
-  <si>
-    <t>BS51206448</t>
-  </si>
-  <si>
-    <t>Lê Bảo Lộc</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>079203004561</t>
-  </si>
-  <si>
-    <t>Đà Lạt</t>
-  </si>
-  <si>
-    <t>0932444512</t>
-  </si>
-  <si>
-    <t>bs51206448@ptitcare.doctor.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bác sĩ </t>
-  </si>
-  <si>
-    <t>BS53536587</t>
-  </si>
-  <si>
-    <t>Phạm Phú Bảo</t>
-  </si>
-  <si>
-    <t>079203004586</t>
-  </si>
-  <si>
-    <t>0932074485</t>
-  </si>
-  <si>
-    <t>bs53536587@ptitcare.doctor.com</t>
-  </si>
-  <si>
-    <t>Giáo Sư chuyên ngành</t>
+    <t>BS12099619</t>
+  </si>
+  <si>
+    <t>Đinh Vân Thư</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>1982</t>
+  </si>
+  <si>
+    <t>102365896547</t>
+  </si>
+  <si>
+    <t>0963214563</t>
+  </si>
+  <si>
+    <t>bs12099619@ptitcare.doctor.com</t>
+  </si>
+  <si>
+    <t>BS13011821</t>
+  </si>
+  <si>
+    <t>Kiều Minh Trang</t>
+  </si>
+  <si>
+    <t>1983</t>
+  </si>
+  <si>
+    <t>120365896521</t>
+  </si>
+  <si>
+    <t>0963214523</t>
+  </si>
+  <si>
+    <t>bs13011821@ptitcare.doctor.com</t>
+  </si>
+  <si>
+    <t>Mắt</t>
+  </si>
+  <si>
+    <t>BS14148349</t>
+  </si>
+  <si>
+    <t>Lê Hải</t>
+  </si>
+  <si>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>012365478962</t>
+  </si>
+  <si>
+    <t>bs14148349@ptitcare.doctor.com</t>
+  </si>
+  <si>
+    <t>Tiêm chủng</t>
+  </si>
+  <si>
+    <t>BS1627807</t>
+  </si>
+  <si>
+    <t>Phan Anh Trí</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>156329874563</t>
+  </si>
+  <si>
+    <t>0935056325</t>
+  </si>
+  <si>
+    <t>bs1627807@ptitcare.doctor.com</t>
+  </si>
+  <si>
+    <t>Răng - Hàm - Mặt</t>
+  </si>
+  <si>
+    <t>BS17213024</t>
+  </si>
+  <si>
+    <t>Đinh Hạnh Phúc</t>
+  </si>
+  <si>
+    <t>156236984785</t>
+  </si>
+  <si>
+    <t>0965214785</t>
+  </si>
+  <si>
+    <t>bs17213024@ptitcare.doctor.com</t>
+  </si>
+  <si>
+    <t>Khám sản</t>
+  </si>
+  <si>
+    <t>BS18218265</t>
+  </si>
+  <si>
+    <t>Nguyễn Phi Vũ</t>
+  </si>
+  <si>
+    <t>102365856547</t>
+  </si>
+  <si>
+    <t>0963214589</t>
+  </si>
+  <si>
+    <t>bs18218265@ptitcare.doctor.com</t>
+  </si>
+  <si>
+    <t>Xét nghiệm</t>
+  </si>
+  <si>
+    <t>BS253615</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Hưng</t>
+  </si>
+  <si>
+    <t>265897453</t>
+  </si>
+  <si>
+    <t>0985632145</t>
+  </si>
+  <si>
+    <t>hung@gmail.com</t>
+  </si>
+  <si>
+    <t>Tai - Mũi - Họng</t>
   </si>
 </sst>
 </file>
@@ -233,7 +278,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -337,18 +382,18 @@
         <v>28</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="C5" t="s" s="0">
         <v>31</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>13</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>32</v>
@@ -357,115 +402,211 @@
         <v>33</v>
       </c>
       <c r="F5" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="G5" t="s" s="0">
+      <c r="H5" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="H5" t="s" s="0">
-        <v>36</v>
-      </c>
       <c r="I5" t="s" s="0">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="E6" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="C6" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s" s="0">
+      <c r="F6" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="H6" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="F6" t="s" s="0">
+      <c r="I6" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s" s="0">
         <v>42</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="I6" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="J6" t="s" s="0">
-        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>13</v>
       </c>
       <c r="D7" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E7" t="s" s="0">
+      <c r="I7" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="J7" t="s" s="0">
         <v>48</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="G7" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="H7" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="I7" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="J7" t="s" s="0">
-        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>13</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="J8" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="F8" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s" s="0">
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="H8" t="s" s="0">
+      <c r="B9" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="I8" t="s" s="0">
+      <c r="C9" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="J8" t="s" s="0">
-        <v>20</v>
+      <c r="F9" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
